--- a/biology/Zoologie/Gustave_Cotteau/Gustave_Cotteau.xlsx
+++ b/biology/Zoologie/Gustave_Cotteau/Gustave_Cotteau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Honoré Cotteau (Auxerre, 17 décembre 1818 - Paris, 10 août 1894) est un naturaliste, géologue et paléontologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Juge au tribunal civil de Coulommiers (1853) puis au tribunal civil d’Auxerre (1862), membre de nombreuses sociétés savantes, il a été président de la Société géologique de France de 1874 à 1886. Il fut également président de la Société des sciences historiques et naturelles de l'Yonne de 1883 à 1895.
 Il se fait connaître par ses études paléontologiques sur les échinides vivants et fossiles et par sa collection de 500 espèces de ce type. Conservateur du musée d'Auxerre, il continua la publication de La Paléontologie française d'Alcide d'Orbigny.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Terrains crétacés (avec Alcide d'Orbigny et Édouard de Fromentel), 1841
 Terrain Jurassique, 1849
